--- a/Experimental results/Comparisons/trained model comparison.xlsx
+++ b/Experimental results/Comparisons/trained model comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="19200" windowHeight="19643" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="19200" windowHeight="19643" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="31">
   <si>
     <t>Helpdesk</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>Performer</t>
-  </si>
-  <si>
-    <t>BPI 2020 (International declaration)</t>
   </si>
   <si>
     <t>Average event/trace</t>
@@ -291,9 +288,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -303,214 +297,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="83">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u/>
-      </font>
-    </dxf>
+  <dxfs count="54">
     <dxf>
       <font>
         <b/>
@@ -1189,7 +984,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1219,33 +1014,33 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="7"/>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="19" t="s">
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="21"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="20"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="7" t="s">
@@ -1992,27 +1787,27 @@
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="19" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
-      <c r="M14" s="19" t="s">
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="20"/>
+      <c r="M14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="21"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="20"/>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="7" t="s">
@@ -2758,7 +2553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
@@ -2865,8 +2660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75"/>
@@ -2883,7 +2678,7 @@
         <v>27</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>28</v>
@@ -2955,26 +2750,10 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="47.25">
-      <c r="A5" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="2">
-        <v>6449</v>
-      </c>
-      <c r="C5" s="2">
-        <v>72151</v>
-      </c>
-      <c r="D5" s="17">
-        <f>C5/B5</f>
-        <v>11.187936114126222</v>
-      </c>
-      <c r="E5" s="2">
-        <v>34</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>19</v>
-      </c>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15"/>
+      <c r="D5" s="17"/>
+      <c r="F5" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
